--- a/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2276451.075316475</v>
+        <v>2263877.78197924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>124.5674621389564</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>126.3298627762801</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>234.4053629237962</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>58.6677618471427</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.3694495664119</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>91.29290203716428</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60.80251997725632</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>216.4445740591064</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3370797092945</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>89.16487017867141</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642794</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>218.1547192756511</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431689</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896923</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527397</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>39.41855314253888</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>57.64843562452085</v>
+        <v>48.69824310597892</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>25.06391575501717</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>58.40168825977104</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87635383915796</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>89.87033087845577</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.5209865847978</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>200.4118442134806</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>109.0847947020366</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>106.9918302739229</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>18.31571265378903</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>165.8802201306631</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.11070043745919</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.92275563753727</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>80.42833066742627</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>33.88515459098642</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>181.548903816607</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>181.548903816607</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>181.548903816607</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>181.548903816607</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>181.548903816607</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2344.380435748108</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748108</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>293.047981881067</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>293.047981881067</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>293.047981881067</v>
       </c>
       <c r="E7" t="n">
-        <v>548.5954256477204</v>
+        <v>293.047981881067</v>
       </c>
       <c r="F7" t="n">
-        <v>548.5954256477204</v>
+        <v>146.1580343831567</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>146.1580343831567</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>146.1580343831567</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>293.047981881067</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1640.777806202926</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.777806202926</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1640.777806202926</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1254.989553604682</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>844.0036488150743</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>426.0398407132611</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>69.77257646012774</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684848</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391128</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632213</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508855</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684924</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>527.345012970582</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912904026</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.849341221368</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805459</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822451</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>4076.539318291367</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>3907.60313536346</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>4486.177334019624</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>4258.187783121607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>4258.187783121607</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5931,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557899</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.685527502827</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>825.448437320779</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,16 +5974,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P24" t="n">
         <v>4773.721670557069</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>552.6620995918039</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241923</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688038</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.497233179933</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471158</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.9246662551</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.240178049213</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>333.7051469529988</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="C28" t="n">
-        <v>164.7689640250919</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="D28" t="n">
-        <v>164.7689640250919</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E28" t="n">
-        <v>164.7689640250919</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F28" t="n">
-        <v>164.7689640250919</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>4495.09498137023</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>4495.09498137023</v>
       </c>
       <c r="X28" t="n">
-        <v>736.1461909267687</v>
+        <v>4495.09498137023</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.3536117832385</v>
+        <v>4404.31686937179</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6460,37 +6460,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3907.324136615207</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>4237.186764279239</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4516.726829497937</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4721.749310280146</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.2079870004857</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C31" t="n">
-        <v>244.2079870004857</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D31" t="n">
-        <v>244.2079870004857</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E31" t="n">
-        <v>244.2079870004857</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>244.2079870004857</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>874.6385818722729</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X31" t="n">
-        <v>646.6490309742555</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.8564518307254</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,37 +6712,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.825180851558</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.687808515591</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.227873734288</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6870,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.05575190923</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227881</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227881</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858274</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878101</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,16 +6922,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.2811958984813</v>
+        <v>4074.755310959158</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>4074.755310959158</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1390.843714725657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1390.843714725657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1167.058299515163</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>877.929660728721</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V37" t="n">
-        <v>877.929660728721</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W37" t="n">
-        <v>877.929660728721</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="X37" t="n">
-        <v>877.929660728721</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="Y37" t="n">
-        <v>877.929660728721</v>
+        <v>4074.755310959158</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4147.418415517901</v>
+        <v>3739.626168222635</v>
       </c>
       <c r="C43" t="n">
-        <v>3978.482232589994</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D43" t="n">
-        <v>3828.365593177658</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E43" t="n">
-        <v>3828.365593177658</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F43" t="n">
-        <v>3828.365593177658</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G43" t="n">
-        <v>3660.190271497479</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H43" t="n">
-        <v>3509.772263045422</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I43" t="n">
         <v>3459.155393916676</v>
@@ -7599,22 +7599,22 @@
         <v>4549.85945949167</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.85945949167</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.85945949167</v>
+        <v>4283.727826465482</v>
       </c>
       <c r="V43" t="n">
-        <v>4549.85945949167</v>
+        <v>4029.043338259596</v>
       </c>
       <c r="W43" t="n">
-        <v>4549.85945949167</v>
+        <v>3739.626168222635</v>
       </c>
       <c r="X43" t="n">
-        <v>4549.85945949167</v>
+        <v>3739.626168222635</v>
       </c>
       <c r="Y43" t="n">
-        <v>4329.06688034814</v>
+        <v>3739.626168222635</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7639,19 +7639,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>496.7497906007063</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>346.6331511883706</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>346.6331511883706</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>178.4578295081912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>951.7747876811821</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298199</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,19 +9722,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305223</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>182.034074286795</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.27839330891788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>197.3581281579196</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>33.98292404817693</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.2783933089259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>247.1044451940521</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.5889167740565</v>
+        <v>237.5391092925984</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>142.1829053436107</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>227.8356641388063</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.61721462421963</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>128.714322473639</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.97258187857975</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>18.17280913861416</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>109.4998586500582</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.972522129869887</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>200.2689406983058</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.6427782059279</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>60.3085450268128</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>244.3145967610401</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>68.48549770010986</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>218.2524887328416</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459065</v>
-      </c>
       <c r="I2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="P2" t="n">
         <v>527889.230645907</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="C4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="D4" t="n">
-        <v>145979.3810050735</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>6357.276476069271</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="F4" t="n">
-        <v>6357.276476069272</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="G4" t="n">
-        <v>6357.276476069282</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="H4" t="n">
-        <v>6357.27647606927</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="I4" t="n">
-        <v>6357.276476069269</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="J4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442735</v>
       </c>
       <c r="K4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="L4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="M4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="O4" t="n">
-        <v>6357.27647606932</v>
+        <v>7749.647172442684</v>
       </c>
       <c r="P4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.64717244268</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264603.143624636</v>
+        <v>-266333.2040807501</v>
       </c>
       <c r="C6" t="n">
-        <v>325364.7355899083</v>
+        <v>323634.6751337945</v>
       </c>
       <c r="D6" t="n">
-        <v>325364.7355899086</v>
+        <v>323634.6751337944</v>
       </c>
       <c r="E6" t="n">
-        <v>-95615.40825577511</v>
+        <v>-97007.77895214845</v>
       </c>
       <c r="F6" t="n">
-        <v>429544.6282211207</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="G6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247479</v>
       </c>
       <c r="H6" t="n">
-        <v>429544.6282211206</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="I6" t="n">
-        <v>429544.6282211207</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="J6" t="n">
-        <v>253121.4090285279</v>
+        <v>251729.0383321549</v>
       </c>
       <c r="K6" t="n">
-        <v>429544.6282211212</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="L6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="M6" t="n">
-        <v>294743.6129872839</v>
+        <v>293351.2422909105</v>
       </c>
       <c r="N6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="O6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.257524748</v>
       </c>
       <c r="P6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247477</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>230.1155794817265</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>19.09118524665115</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>130.8675288472114</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>348.2082838945688</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13.94035269263897</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>43.67271975517394</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>304.4703717937512</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>107.4781987052507</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>164.1606814885716</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187126</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>532.9342021211278</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556204</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>140.5103663981263</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>389.1274892183196</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055998</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206028</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>326.262426096695</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263877.78197924</v>
+        <v>2256860.767087527</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>124.5674621389564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>291.2607927468913</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3298627762801</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>58.6677618471427</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>91.29290203716428</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>60.80251997725632</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.67129869336565</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.44734925172038</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>89.16487017867141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.34452922604881</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>218.1547192756511</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>39.41855314253888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
-        <v>48.69824310597892</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>25.06391575501717</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>101.5975477744925</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.87033087845577</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.4118442134806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.0847947020366</v>
+        <v>187.0778658134918</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.31571265378903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>165.8802201306631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>41.92275563753727</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,10 +4194,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>33.88515459098642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.6780100036603</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>604.6780100036603</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.548903816607</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.549686895097</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5871699546856</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>454.3214713479351</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>454.3214713479351</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>293.047981881067</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>293.047981881067</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>293.047981881067</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>293.047981881067</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1580343831567</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>146.1580343831567</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>146.1580343831567</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>293.047981881067</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,31 +4895,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>398.5674257938014</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>251.677478295891</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.67767803422342</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.67767803422342</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.67767803422342</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.77257646012774</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.1711433963917</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>843.1711433963917</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>843.1711433963917</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.1711433963917</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5366,10 +5366,10 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1167.48286482109</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="W16" t="n">
-        <v>878.0656947841297</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5597,16 +5597,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4076.539318291367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3907.60313536346</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3757.486495951125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4525.994054365623</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>4525.994054365623</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>4486.177334019624</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>4258.187783121607</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>4258.187783121607</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2315.738453580939</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2520.760934363148</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1114.86560735774</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1114.86560735774</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>825.448437320779</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.6620995918039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.3105644220436</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,46 +6223,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.66840454155</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C28" t="n">
-        <v>4222.66840454155</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D28" t="n">
-        <v>4072.551765129214</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546821</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>4495.09498137023</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="W28" t="n">
-        <v>4495.09498137023</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="X28" t="n">
-        <v>4495.09498137023</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="Y28" t="n">
-        <v>4404.31686937179</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3907.324136615207</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4237.186764279239</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4516.726829497937</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4721.749310280146</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>874.9271131227918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>874.9271131227918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6870,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119724</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.05575190923</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227881</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>874.9271131227881</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>585.5099430858274</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X34" t="n">
-        <v>357.5203921878101</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4074.755310959158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4074.755310959158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4093.25603081147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4093.25603081147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4074.755310959158</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1076.676004442255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>1076.676004442255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3739.626168222635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4283.727826465482</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4029.043338259596</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>3739.626168222635</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3739.626168222635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3739.626168222635</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>951.7747876811821</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>951.7747876811821</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978225</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735862</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.83804904622872</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.49733361305223</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>197.3581281579196</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>173.3651261629883</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>33.98292404817693</v>
+        <v>215.5752269645608</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.1044451940521</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
-        <v>237.5391092925984</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>142.1829053436107</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>150.5400955493355</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.714322473639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.17280913861416</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.4998586500582</v>
+        <v>31.50678753860299</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.2689406983058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.6427782059279</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>244.3145967610401</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>218.2524887328416</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="F4" t="n">
         <v>7749.64717244268</v>
@@ -26435,28 +26435,28 @@
         <v>7749.64717244268</v>
       </c>
       <c r="H4" t="n">
+        <v>7749.647172442681</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7749.647172442681</v>
+      </c>
+      <c r="J4" t="n">
         <v>7749.64717244268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7749.647172442679</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7749.647172442735</v>
       </c>
       <c r="K4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="L4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="M4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="N4" t="n">
+        <v>7749.647172442679</v>
+      </c>
+      <c r="O4" t="n">
         <v>7749.64717244268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7749.647172442684</v>
       </c>
       <c r="P4" t="n">
         <v>7749.64717244268</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807501</v>
+        <v>-266333.2040807499</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337945</v>
+        <v>323634.6751337941</v>
       </c>
       <c r="D6" t="n">
-        <v>323634.6751337944</v>
+        <v>323634.6751337947</v>
       </c>
       <c r="E6" t="n">
-        <v>-97007.77895214845</v>
+        <v>-97982.37021187021</v>
       </c>
       <c r="F6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.6662650261</v>
       </c>
       <c r="G6" t="n">
-        <v>428152.2575247479</v>
+        <v>427177.6662650262</v>
       </c>
       <c r="H6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650257</v>
       </c>
       <c r="I6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.666265026</v>
       </c>
       <c r="J6" t="n">
-        <v>251729.0383321549</v>
+        <v>250754.447072433</v>
       </c>
       <c r="K6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="L6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="M6" t="n">
-        <v>293351.2422909105</v>
+        <v>292376.6510311888</v>
       </c>
       <c r="N6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650261</v>
       </c>
       <c r="O6" t="n">
-        <v>428152.257524748</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="P6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650257</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>230.1155794817265</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>115.6152529948201</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>19.09118524665115</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>11.99007165458437</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.2082838945688</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>43.67271975517394</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>304.4703717937512</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>98.95375469339433</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.1606814885716</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>16.75260993681663</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35734,13 +35734,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35965,19 +35965,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296107</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.8510818313028</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>532.9342021211278</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.5103663981263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778055998</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256860.767087527</v>
+        <v>2261800.02993656</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>291.2607927468913</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>57.28111013508763</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>96.15030530189917</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.51033041214341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>282.9766153788673</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>28.44734925172038</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.34452922604881</v>
+        <v>139.9410821110698</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.03801681746327</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>36.56241635926716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>137.6981639347285</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>101.5975477744925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>16.3478381060936</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.0778658134918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>529.7664971293368</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>111.8026890275237</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>111.8026890275237</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4375,7 +4375,7 @@
         <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
         <v>562.6765899837193</v>
@@ -4488,7 +4488,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>699.731258496553</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4805193761945</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E10" t="n">
-        <v>398.5674257938014</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F10" t="n">
-        <v>251.677478295891</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>82.67767803422342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>82.67767803422342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>82.67767803422342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>612.8127116841194</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405893</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="14">
@@ -5257,37 +5257,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
@@ -5366,10 +5366,10 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E16" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1461.984536861673</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.567366824712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>944.5778159266949</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831648</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,10 +5512,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300437</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.7763375151577</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>713.8401545872508</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1285.217381488927</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>1285.217381488927</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>1285.217381488927</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.424802345397</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W34" t="n">
-        <v>754.894602230607</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X34" t="n">
-        <v>754.894602230607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,55 +6931,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735862</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>173.3651261629883</v>
+        <v>85.76857327796739</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5752269645608</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.51615797628583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>10.91730908348387</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037968</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>150.5400955493355</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>202.2368152460012</v>
       </c>
     </row>
     <row r="29">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.50678753860299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459069</v>
-      </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
@@ -26352,10 +26352,10 @@
         <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147709.4414611872</v>
+        <v>147709.4414611871</v>
       </c>
       <c r="C4" t="n">
         <v>147709.4414611872</v>
@@ -26426,13 +26426,13 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442683</v>
       </c>
       <c r="F4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="G4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="H4" t="n">
         <v>7749.647172442681</v>
@@ -26444,22 +26444,22 @@
         <v>7749.64717244268</v>
       </c>
       <c r="K4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.647172442682</v>
       </c>
       <c r="L4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="M4" t="n">
+        <v>7749.647172442683</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7749.647172442683</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7749.647172442685</v>
+      </c>
+      <c r="P4" t="n">
         <v>7749.647172442681</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7749.647172442679</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7749.64717244268</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7749.64717244268</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807499</v>
+        <v>-266333.2040807501</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337941</v>
+        <v>323634.6751337943</v>
       </c>
       <c r="D6" t="n">
         <v>323634.6751337947</v>
       </c>
       <c r="E6" t="n">
-        <v>-97982.37021187021</v>
+        <v>-97105.23807812025</v>
       </c>
       <c r="F6" t="n">
-        <v>427177.6662650261</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="G6" t="n">
-        <v>427177.6662650262</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="H6" t="n">
-        <v>427177.6662650257</v>
+        <v>428054.7983987757</v>
       </c>
       <c r="I6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="J6" t="n">
-        <v>250754.447072433</v>
+        <v>251631.5792061827</v>
       </c>
       <c r="K6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987754</v>
       </c>
       <c r="L6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="M6" t="n">
-        <v>292376.6510311888</v>
+        <v>293253.7831649383</v>
       </c>
       <c r="N6" t="n">
-        <v>427177.6662650261</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="O6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="P6" t="n">
-        <v>427177.6662650257</v>
+        <v>428054.7983987755</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>115.6152529948201</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.65020610977362</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>11.99007165458437</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.0876333541544</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.0743229399514</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>66.26435333854573</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1330726458454</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.75260993681663</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>326.262426096695</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296107</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
